--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1387.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1387.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.334451404134309</v>
+        <v>1.192249655723572</v>
       </c>
       <c r="B1">
-        <v>2.510681348502665</v>
+        <v>2.309991359710693</v>
       </c>
       <c r="C1">
-        <v>3.140503290148818</v>
+        <v>6.687001705169678</v>
       </c>
       <c r="D1">
-        <v>3.462680410911875</v>
+        <v>2.32832932472229</v>
       </c>
       <c r="E1">
-        <v>1.051067213062617</v>
+        <v>1.188352465629578</v>
       </c>
     </row>
   </sheetData>
